--- a/data/trans_dic/P16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +739,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,38; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,47; 2,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,25; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>1,52; 8,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,19; 1,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,32; 1,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,21; 1,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>1,03; 4,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,26; 1,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,29; 2,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,07; 2,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,46; 2,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,27; 2,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,49; 2,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,58; 3,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,51; 1,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,43; 1,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,4; 1,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,54; 2,28</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,68; 2,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,32; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,28; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,52; 4,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,33; 3,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,07; 6,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,29; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,94; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,15; 2,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,42; 4,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,0; 2,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,54; 4,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,83; 3,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,36; 4,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,74; 4,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,01; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,47; 6,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,66; 7,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,16; 8,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>6,84; 11,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,05; 4,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,87; 5,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,74; 6,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,29; 8,44</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,58%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,32; 4,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,03; 3,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>2,11; 6,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,04; 8,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>4,37; 9,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,34; 10,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,3; 16,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>12,37; 17,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,13; 6,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,62; 6,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,94; 10,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>9,11; 12,08</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,46%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,53; 8,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,52; 6,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,82; 10,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,97; 13,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,5; 12,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,48; 18,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,63; 19,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,74; 22,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,75; 9,82</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>8,74; 12,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,09; 14,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,22; 18,19</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,57; 2,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,52; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,55; 6,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,54; 7,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,7; 8,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,27; 11,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,71; 3,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,75; 4,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,62; 5,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 6,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 8,33</t>
+          <t>1,45; 8,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,83</t>
+          <t>0,92; 4,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,2</t>
+          <t>0,08; 2,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,21</t>
+          <t>0,52; 2,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,28</t>
+          <t>0,49; 2,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,73</t>
+          <t>1,5; 4,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,71</t>
+          <t>2,99; 5,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,76</t>
+          <t>2,55; 4,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,59</t>
+          <t>1,21; 5,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,99</t>
+          <t>6,48; 10,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,44</t>
+          <t>3,52; 7,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,84</t>
+          <t>5,07; 8,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,11</t>
+          <t>12,42; 17,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,08</t>
+          <t>9,1; 12,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>9,94%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,71</t>
+          <t>3,06; 7,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,42</t>
+          <t>1,59; 6,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,24</t>
+          <t>4,92; 10,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 13,84</t>
+          <t>6,36; 11,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,09</t>
+          <t>6,3; 12,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,09</t>
+          <t>8,37; 15,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,63; 19,68</t>
+          <t>13,6; 21,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,74; 22,7</t>
+          <t>4,19; 16,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,82</t>
+          <t>5,41; 9,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,38</t>
+          <t>5,69; 10,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 14,53</t>
+          <t>10,43; 15,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 18,19</t>
+          <t>4,98; 13,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,72; 12,76</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 8,37</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 12,41</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 19,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7,14; 14,33</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 23,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,57; 20,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24,35; 30,54</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 12,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 16,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 16,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,57; 25,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,57; 2,55</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,52; 2,61</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,14; 3,33</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 6,14</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 5,71</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>3,51; 4,9</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,54; 7,11</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,7; 8,52</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,27; 11,49</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 10,98</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,71; 3,52</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>3,75; 4,76</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>4,62; 5,7</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 8,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +740,47 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,2</t>
+          <t>0,0; 5,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,37</t>
+          <t>0,42; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,9</t>
+          <t>0,46; 2,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,11</t>
+          <t>0,43; 2,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,11</t>
+          <t>1,62; 8,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,1</t>
+          <t>0,19; 1,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,62</t>
+          <t>0,32; 1,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,52</t>
+          <t>0,12; 1,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,48</t>
+          <t>0,93; 4,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,57</t>
+          <t>0,27; 1,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,27</t>
+          <t>0,3; 2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,16</t>
+          <t>0,08; 2,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,35</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,3</t>
+          <t>0,21; 2,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,33</t>
+          <t>0,49; 2,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,95</t>
+          <t>0,49; 3,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,58</t>
+          <t>0,47; 1,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,83</t>
+          <t>0,45; 1,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,4</t>
+          <t>0,4; 1,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,12</t>
+          <t>0,51; 2,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,69</t>
+          <t>0,69; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,19</t>
+          <t>1,2; 3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,02</t>
+          <t>0,28; 2,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,7</t>
+          <t>1,52; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,5</t>
+          <t>1,32; 3,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,25</t>
+          <t>3,11; 6,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,52</t>
+          <t>1,26; 3,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,78</t>
+          <t>2,95; 5,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,65</t>
+          <t>1,18; 2,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,46</t>
+          <t>2,39; 4,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,34</t>
+          <t>0,99; 2,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,79</t>
+          <t>2,5; 4,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,67</t>
+          <t>0,78; 3,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,12</t>
+          <t>1,2; 4,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,55</t>
+          <t>1,63; 4,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,67</t>
+          <t>1,24; 5,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,1</t>
+          <t>2,55; 5,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,55</t>
+          <t>3,65; 7,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,94</t>
+          <t>5,07; 9,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,97</t>
+          <t>6,3; 10,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,2</t>
+          <t>2,01; 4,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,29</t>
+          <t>2,9; 5,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,27</t>
+          <t>3,82; 6,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,36</t>
+          <t>3,56; 7,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,68</t>
+          <t>1,19; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,9</t>
+          <t>1,21; 4,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 6,01</t>
+          <t>2,08; 5,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,85</t>
+          <t>4,95; 9,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,28</t>
+          <t>4,1; 9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,33</t>
+          <t>5,3; 10,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,3; 16,63</t>
+          <t>10,06; 16,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 17,14</t>
+          <t>12,19; 16,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,09</t>
+          <t>3,2; 6,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,67</t>
+          <t>3,58; 6,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,67</t>
+          <t>6,84; 10,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,07</t>
+          <t>9,17; 12,2</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,77</t>
+          <t>3,06; 7,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,15</t>
+          <t>1,59; 6,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,55</t>
+          <t>4,79; 10,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,12</t>
+          <t>6,69; 11,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 12,36</t>
+          <t>5,9; 12,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 15,21</t>
+          <t>8,45; 15,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,71</t>
+          <t>14,01; 21,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 16,77</t>
+          <t>4,68; 17,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,35</t>
+          <t>5,52; 9,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,01</t>
+          <t>5,73; 10,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 15,49</t>
+          <t>10,05; 15,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,98; 13,22</t>
+          <t>5,31; 13,14</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,76</t>
+          <t>4,48; 11,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,37</t>
+          <t>2,87; 8,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,41</t>
+          <t>5,85; 12,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,87; 19,71</t>
+          <t>12,96; 19,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,33</t>
+          <t>7,16; 13,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 23,02</t>
+          <t>15,09; 23,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 20,27</t>
+          <t>12,19; 20,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,35; 30,54</t>
+          <t>24,32; 30,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 12,34</t>
+          <t>6,95; 12,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,15</t>
+          <t>10,87; 16,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,01</t>
+          <t>10,34; 16,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,25</t>
+          <t>20,57; 25,23</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,55</t>
+          <t>1,54; 2,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,61</t>
+          <t>1,54; 2,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,33</t>
+          <t>2,17; 3,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,71</t>
+          <t>3,79; 5,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,9</t>
+          <t>3,46; 4,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,11</t>
+          <t>5,44; 7,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,7; 8,52</t>
+          <t>6,62; 8,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,98</t>
+          <t>8,32; 10,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,52</t>
+          <t>2,71; 3,54</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,75; 4,76</t>
+          <t>3,71; 4,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,62; 5,7</t>
+          <t>4,59; 5,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,16</t>
+          <t>6,39; 8,13</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11740</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6679</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3314</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21602</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1946; 11082</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1980; 12336</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1702; 11420</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5064; 27190</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1872; 11218</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2807; 13364</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>993; 11024</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6617; 32758</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6711</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7353</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5716</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12452</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12427</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2011; 11458</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2033; 15542</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7020</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>339; 8703</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2981; 14737</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1252; 14093</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2782; 12240</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2490; 15881</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6428; 21133</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5839; 24522</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4638; 15151</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4748; 19454</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8786</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15454</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15205</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15800</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31248</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14950</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22665</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24586</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46702</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20507</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37869</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4403; 15880</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8122; 26948</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1888; 13692</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8150; 26028</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9081; 24881</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21953; 43888</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8323; 23352</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16029; 32219</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15700; 35579</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33095; 60481</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13153; 30992</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26953; 49833</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9433</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14636</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18782</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30602</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20928</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33603</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45422</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>58499</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30361</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>48240</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>64205</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>89101</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4069; 18595</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7378; 26322</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>10528; 29379</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11047; 48635</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13139; 30725</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22400; 47716</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32925; 59953</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>44880; 75497</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20812; 43924</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35575; 65455</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49451; 83169</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>56988; 116496</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9863</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>17614</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37866</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25956</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33213</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>66031</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79077</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>35819</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>42897</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>83645</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>116943</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4620; 17411</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5199; 18194</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9953; 28593</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27723; 51049</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16555; 36483</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23723; 45676</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>49959; 84116</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>66408; 91343</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>25297; 50012</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31364; 58356</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>66691; 103514</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>101339; 134838</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14981</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10109</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>23983</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32160</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31101</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>40540</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>66065</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64861</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>46082</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>50649</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>90048</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>97021</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8961; 23064</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4909; 19619</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16017; 34543</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24638; 41562</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20247; 41606</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>29826; 55082</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>52933; 82466</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28450; 104172</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>35066; 58702</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>37858; 67432</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>71574; 108586</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>51819; 128352</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16761</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12609</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22098</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>45151</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34499</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>72777</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>62878</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>115874</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>51260</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>85386</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>84977</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9403; 24941</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7146; 21395</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15027; 31379</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36592; 55737</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23909; 46563</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58346; 90508</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48795; 80406</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>103201; 130033</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37817; 67638</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>69059; 106984</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>67948; 105150</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>145326; 178260</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>70022</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>90024</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>167783</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>140672</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>222959</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>266481</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>359919</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>292981</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>356505</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>527702</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>50520; 80965</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>52781; 90023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>73728; 112248</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>131136; 196992</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>116772; 164191</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>192835; 254178</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>234670; 297806</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>304452; 401918</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>180172; 235616</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>258055; 326046</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>318409; 399037</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>455011; 578475</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>